--- a/Registro de reuniones.xlsx
+++ b/Registro de reuniones.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/26785fffd84b4161/Documents/devops/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="23" documentId="8_{A0B5019F-3C84-44D5-963B-79577F2CCE7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{55BA1B83-4ABF-4FD1-895C-875812E00E6C}"/>
+  <xr:revisionPtr revIDLastSave="24" documentId="8_{A0B5019F-3C84-44D5-963B-79577F2CCE7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BFE1CBBE-9CB5-4005-BBE6-8C93DC6268AE}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{52033EEB-5941-456B-8B96-93AD0B5E7268}"/>
   </bookViews>
@@ -475,91 +475,29 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -572,23 +510,80 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -611,6 +606,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -910,254 +909,250 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27727DE9-DD59-4CEC-ADA5-8F87E780917E}">
-  <dimension ref="A1:R7"/>
+  <dimension ref="A1:Q7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="94" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="26.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.42578125" style="8"/>
-    <col min="2" max="2" width="26.42578125" style="3"/>
-    <col min="3" max="3" width="26.42578125" style="4"/>
-    <col min="4" max="4" width="26.42578125" style="3"/>
-    <col min="5" max="5" width="26.42578125" style="4"/>
-    <col min="6" max="6" width="26.42578125" style="3"/>
-    <col min="7" max="7" width="26.42578125" style="4"/>
-    <col min="8" max="8" width="26.42578125" style="3"/>
-    <col min="9" max="9" width="26.42578125" style="4"/>
-    <col min="10" max="10" width="26.42578125" style="3"/>
-    <col min="11" max="11" width="26.42578125" style="4"/>
-    <col min="12" max="12" width="26.42578125" style="3"/>
-    <col min="13" max="13" width="26.42578125" style="4"/>
-    <col min="14" max="14" width="26.42578125" style="3"/>
-    <col min="15" max="15" width="26.42578125" style="4"/>
-    <col min="16" max="16" width="26.42578125" style="3"/>
-    <col min="17" max="17" width="26.42578125" style="4"/>
+    <col min="1" max="1" width="24.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="26.42578125" style="2"/>
+    <col min="3" max="3" width="26.42578125" style="3"/>
+    <col min="4" max="4" width="26.42578125" style="2"/>
+    <col min="5" max="5" width="26.42578125" style="3"/>
+    <col min="6" max="6" width="26.42578125" style="2"/>
+    <col min="7" max="7" width="26.42578125" style="3"/>
+    <col min="8" max="8" width="26.42578125" style="2"/>
+    <col min="9" max="9" width="26.42578125" style="3"/>
+    <col min="10" max="10" width="26.42578125" style="2"/>
+    <col min="11" max="11" width="26.42578125" style="3"/>
+    <col min="12" max="12" width="26.42578125" style="2"/>
+    <col min="13" max="13" width="26.42578125" style="3"/>
+    <col min="14" max="14" width="26.42578125" style="2"/>
+    <col min="15" max="15" width="26.42578125" style="3"/>
+    <col min="16" max="16" width="26.42578125" style="2"/>
+    <col min="17" max="17" width="26.42578125" style="3"/>
     <col min="18" max="16384" width="26.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:17" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="8"/>
-      <c r="O1" s="8"/>
-      <c r="P1" s="8"/>
-      <c r="Q1" s="8"/>
-      <c r="R1" s="8"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
-      <c r="O2" s="8"/>
-      <c r="P2" s="8"/>
-      <c r="Q2" s="8"/>
-      <c r="R2" s="8"/>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
     </row>
-    <row r="3" spans="1:18" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="8"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
-      <c r="M3" s="8"/>
-      <c r="N3" s="8"/>
-      <c r="O3" s="8"/>
-      <c r="P3" s="8"/>
-      <c r="Q3" s="8"/>
-      <c r="R3" s="9"/>
+    <row r="3" spans="1:17" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
     </row>
-    <row r="4" spans="1:18" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="36" t="s">
+    <row r="4" spans="1:17" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="34" t="s">
+      <c r="B4" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="34"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="34"/>
-      <c r="F4" s="34"/>
-      <c r="G4" s="34"/>
-      <c r="H4" s="34"/>
-      <c r="I4" s="34"/>
-      <c r="J4" s="34"/>
-      <c r="K4" s="34"/>
-      <c r="L4" s="34"/>
-      <c r="M4" s="34"/>
-      <c r="N4" s="34"/>
-      <c r="O4" s="34"/>
-      <c r="P4" s="34"/>
-      <c r="Q4" s="35"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="20"/>
+      <c r="L4" s="20"/>
+      <c r="M4" s="20"/>
+      <c r="N4" s="20"/>
+      <c r="O4" s="20"/>
+      <c r="P4" s="20"/>
+      <c r="Q4" s="21"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5" s="37"/>
-      <c r="B5" s="10" t="s">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" s="23"/>
+      <c r="B5" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="13"/>
-      <c r="D5" s="28" t="s">
+      <c r="C5" s="26"/>
+      <c r="D5" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="29"/>
-      <c r="F5" s="26" t="s">
+      <c r="E5" s="28"/>
+      <c r="F5" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="27"/>
-      <c r="H5" s="23" t="s">
+      <c r="G5" s="30"/>
+      <c r="H5" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="I5" s="24"/>
-      <c r="J5" s="21" t="s">
+      <c r="I5" s="32"/>
+      <c r="J5" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="K5" s="22"/>
-      <c r="L5" s="19" t="s">
+      <c r="K5" s="34"/>
+      <c r="L5" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="20"/>
-      <c r="N5" s="17" t="s">
+      <c r="M5" s="36"/>
+      <c r="N5" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="O5" s="18"/>
+      <c r="O5" s="14"/>
       <c r="P5" s="15" t="s">
         <v>15</v>
       </c>
       <c r="Q5" s="16"/>
     </row>
-    <row r="6" spans="1:18" s="33" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="38"/>
-      <c r="B6" s="30" t="s">
+    <row r="6" spans="1:17" s="11" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="24"/>
+      <c r="B6" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="31" t="s">
+      <c r="C6" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="30" t="s">
+      <c r="D6" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="32" t="s">
+      <c r="E6" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="F6" s="30" t="s">
+      <c r="F6" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="G6" s="32" t="s">
+      <c r="G6" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="H6" s="30" t="s">
+      <c r="H6" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="I6" s="32" t="s">
+      <c r="I6" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="J6" s="30" t="s">
+      <c r="J6" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="K6" s="32" t="s">
+      <c r="K6" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="L6" s="30" t="s">
+      <c r="L6" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="M6" s="32" t="s">
+      <c r="M6" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="N6" s="30" t="s">
+      <c r="N6" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="O6" s="32" t="s">
+      <c r="O6" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="P6" s="30" t="s">
+      <c r="P6" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="Q6" s="32" t="s">
+      <c r="Q6" s="10" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="39">
+    <row r="7" spans="1:17" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="12">
         <v>45209</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="E7" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="11" t="s">
+      <c r="F7" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G7" s="12" t="s">
+      <c r="G7" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="H7" s="11" t="s">
+      <c r="H7" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="I7" s="25" t="s">
+      <c r="I7" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="J7" s="11" t="s">
+      <c r="J7" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="K7" s="12" t="s">
+      <c r="K7" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="L7" s="11" t="s">
+      <c r="L7" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="M7" s="12" t="s">
+      <c r="M7" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="N7" s="11" t="s">
+      <c r="N7" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="O7" s="12" t="s">
+      <c r="O7" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="P7" s="11" t="s">
+      <c r="P7" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="Q7" s="12" t="s">
+      <c r="Q7" s="5" t="s">
         <v>16</v>
       </c>
     </row>

--- a/Registro de reuniones.xlsx
+++ b/Registro de reuniones.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27004"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -15,7 +15,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -41,21 +41,42 @@
     <t>Registro de reuniones</t>
   </si>
   <si>
+    <t>Fecha</t>
+  </si>
+  <si>
+    <t>Nombre de los integrantes del equipo</t>
+  </si>
+  <si>
     <t>Hebert Manuel Álvarez Estrada</t>
   </si>
   <si>
+    <t>Gustavo Gutiérrez Mariscal</t>
+  </si>
+  <si>
+    <t>Kevin Fared Velázquez Vargas</t>
+  </si>
+  <si>
+    <t>Gabriel Hernández Diaz</t>
+  </si>
+  <si>
+    <t>Luis David Cazares Morales</t>
+  </si>
+  <si>
+    <t>Iram Oswaldo Gómez Sánchez</t>
+  </si>
+  <si>
+    <t>Fabiola Rodríguez Salvador</t>
+  </si>
+  <si>
+    <t>Jesus Agustin Morales Marta</t>
+  </si>
+  <si>
     <t>¿Qué hiciste ayer?</t>
   </si>
   <si>
     <t>¿Qué harás hoy?</t>
   </si>
   <si>
-    <t>Gustavo Gutiérrez Mariscal</t>
-  </si>
-  <si>
-    <t>Fecha</t>
-  </si>
-  <si>
     <t>Leí documentos de QA y di repasada.</t>
   </si>
   <si>
@@ -68,68 +89,47 @@
     <t>Comenzar con la programación.</t>
   </si>
   <si>
-    <t>Kevin Fared Velázquez Vargas</t>
-  </si>
-  <si>
-    <t>Gabriel Hernández Diaz</t>
-  </si>
-  <si>
-    <t>Luis David Cazares Morales</t>
-  </si>
-  <si>
-    <t>Iram Oswaldo Gómez Sánchez</t>
-  </si>
-  <si>
-    <t>Fabiola Rodríguez Salvador</t>
-  </si>
-  <si>
-    <t>Jesus Agustin Morales Marta</t>
+    <t>Ayudar a rellenar campos del primer sprint (estimaciones y esfuerzos).</t>
+  </si>
+  <si>
+    <t>Iniciar con la base de datos.</t>
+  </si>
+  <si>
+    <t>Documentación de estimación de horas en Project.</t>
+  </si>
+  <si>
+    <t>iniciar la base de datos.</t>
+  </si>
+  <si>
+    <t>Rellenar campos de backlog del sprint.</t>
+  </si>
+  <si>
+    <t>Comenzar el diseño.</t>
+  </si>
+  <si>
+    <t>Organizando tareas e investigar campos de documentación.</t>
+  </si>
+  <si>
+    <t>Crear repositorio y creación de pantalla donde el usuario ingresa dinero.</t>
+  </si>
+  <si>
+    <t>Backlog del sprint.</t>
+  </si>
+  <si>
+    <t>crear diseño de login.</t>
+  </si>
+  <si>
+    <t>Ayudar con la documentación back log y asignar roles en las actividades de trello y sprint.</t>
   </si>
   <si>
     <t>Realizar la reunión con el equipo e indicar al equipo que hoy comienza el desarrollo de la primera tarea del sprint 1.</t>
-  </si>
-  <si>
-    <t>Nombre de los integrantes del equipo</t>
-  </si>
-  <si>
-    <t>Ayudar a rellenar campos del primer sprint (estimaciones y esfuerzos).</t>
-  </si>
-  <si>
-    <t>Iniciar con la base de datos.</t>
-  </si>
-  <si>
-    <t>Documentación de estimación de horas en Project.</t>
-  </si>
-  <si>
-    <t>iniciar la base de datos.</t>
-  </si>
-  <si>
-    <t>Rellenar campos de backlog del sprint.</t>
-  </si>
-  <si>
-    <t>Comenzar el diseño.</t>
-  </si>
-  <si>
-    <t>Organizando tareas e investigar campos de documentación.</t>
-  </si>
-  <si>
-    <t>Crear repositorio y creación de pantalla donde el usuario ingresa dinero.</t>
-  </si>
-  <si>
-    <t>Backlog del sprint.</t>
-  </si>
-  <si>
-    <t>crear diseño de login.</t>
-  </si>
-  <si>
-    <t>Ayudar con la documentación back log y asignar roles en las actividades de trello y sprint.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -606,10 +606,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -915,7 +911,7 @@
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="26.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="26.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="24.28515625" style="1" customWidth="1"/>
     <col min="2" max="2" width="26.42578125" style="2"/>
@@ -937,7 +933,7 @@
     <col min="18" max="16384" width="26.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:17" ht="45" customHeight="1" thickBot="1">
       <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
@@ -958,7 +954,7 @@
       <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17">
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -976,7 +972,7 @@
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
     </row>
-    <row r="3" spans="1:17" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" customFormat="1" ht="15.75" thickBot="1">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -994,12 +990,12 @@
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
     </row>
-    <row r="4" spans="1:17" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" customFormat="1" ht="15.75" thickBot="1">
       <c r="A4" s="22" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="C4" s="20"/>
       <c r="D4" s="20"/>
@@ -1017,10 +1013,10 @@
       <c r="P4" s="20"/>
       <c r="Q4" s="21"/>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17">
       <c r="A5" s="23"/>
       <c r="B5" s="25" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C5" s="26"/>
       <c r="D5" s="27" t="s">
@@ -1028,132 +1024,132 @@
       </c>
       <c r="E5" s="28"/>
       <c r="F5" s="29" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G5" s="30"/>
       <c r="H5" s="31" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="I5" s="32"/>
       <c r="J5" s="33" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="K5" s="34"/>
       <c r="L5" s="35" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="M5" s="36"/>
       <c r="N5" s="13" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="O5" s="14"/>
       <c r="P5" s="15" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="Q5" s="16"/>
     </row>
-    <row r="6" spans="1:17" s="11" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" s="11" customFormat="1" ht="13.5" thickBot="1">
       <c r="A6" s="24"/>
       <c r="B6" s="8" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="I6" s="10" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="J6" s="8" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="K6" s="10" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="L6" s="8" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="M6" s="10" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="N6" s="8" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="O6" s="10" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="P6" s="8" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="Q6" s="10" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" ht="75.75" thickBot="1">
       <c r="A7" s="12">
         <v>45209</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F7" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="H7" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="I7" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="I7" s="7" t="s">
+      <c r="J7" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="J7" s="4" t="s">
+      <c r="K7" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="K7" s="5" t="s">
+      <c r="L7" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="L7" s="4" t="s">
+      <c r="M7" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="M7" s="5" t="s">
+      <c r="N7" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="N7" s="4" t="s">
+      <c r="O7" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="O7" s="5" t="s">
+      <c r="P7" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="P7" s="4" t="s">
+      <c r="Q7" s="5" t="s">
         <v>28</v>
-      </c>
-      <c r="Q7" s="5" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/Registro de reuniones.xlsx
+++ b/Registro de reuniones.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/26785fffd84b4161/Documents/devops/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="24" documentId="8_{A0B5019F-3C84-44D5-963B-79577F2CCE7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BFE1CBBE-9CB5-4005-BBE6-8C93DC6268AE}"/>
+  <xr:revisionPtr revIDLastSave="48" documentId="8_{A0B5019F-3C84-44D5-963B-79577F2CCE7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AD197397-92F5-4776-930A-9B238623924A}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{52033EEB-5941-456B-8B96-93AD0B5E7268}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="30">
   <si>
     <t>Registro de reuniones</t>
   </si>
@@ -86,7 +86,7 @@
     <t>Rellenar campos de roles.</t>
   </si>
   <si>
-    <t>Comenzar con la programación.</t>
+    <t>Configurar el trello para marcar las fechas</t>
   </si>
   <si>
     <t>Ayudar a rellenar campos del primer sprint (estimaciones y esfuerzos).</t>
@@ -123,6 +123,9 @@
   </si>
   <si>
     <t>Realizar la reunión con el equipo e indicar al equipo que hoy comienza el desarrollo de la primera tarea del sprint 1.</t>
+  </si>
+  <si>
+    <t>ayudar en la configuracion de firebase</t>
   </si>
 </sst>
 </file>
@@ -905,10 +908,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27727DE9-DD59-4CEC-ADA5-8F87E780917E}">
-  <dimension ref="A1:Q7"/>
+  <dimension ref="A1:Q8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="94" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="94" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="26.42578125" defaultRowHeight="15"/>
@@ -1099,7 +1102,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="75.75" thickBot="1">
+    <row r="7" spans="1:17" ht="76.5">
       <c r="A7" s="12">
         <v>45209</v>
       </c>
@@ -1112,7 +1115,7 @@
       <c r="D7" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="4" t="s">
         <v>16</v>
       </c>
       <c r="F7" s="4" t="s">
@@ -1151,6 +1154,31 @@
       <c r="Q7" s="5" t="s">
         <v>28</v>
       </c>
+    </row>
+    <row r="8" spans="1:17" ht="110.25" customHeight="1">
+      <c r="A8" s="12">
+        <v>45240</v>
+      </c>
+      <c r="B8" s="4"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" s="4"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="4"/>
+      <c r="Q8" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="11">
